--- a/01아이디어제안및기획단계/프로젝트기획및설계파트/인텔엣지AISW프로젝트_일정표.xlsx
+++ b/01아이디어제안및기획단계/프로젝트기획및설계파트/인텔엣지AISW프로젝트_일정표.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wodud\OneDrive\바탕 화면\염재영폴더\IntelEdgeAISW_4기과정\EdgeAI프로그래밍\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wodud\OneDrive\바탕 화면\염재영폴더\IntelEdgeAISW_4기과정\EdgeAI프로그래밍\Intel-Edge-AI-\01아이디어제안및기획단계\프로젝트기획및설계파트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA5728C-56AA-4B3F-AA80-E0675B0758D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1023302-CD79-4A19-B9B3-09D33EB2E8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,21 +74,6 @@
     <t>VanArsdel, Ltd.</t>
   </si>
   <si>
-    <t>Create schedule</t>
-  </si>
-  <si>
-    <t>Identify deliverables</t>
-  </si>
-  <si>
-    <t>Develop budget</t>
-  </si>
-  <si>
-    <t>Define scope</t>
-  </si>
-  <si>
-    <t>Execute tasks</t>
-  </si>
-  <si>
     <t>Monitor progress</t>
   </si>
   <si>
@@ -128,19 +113,11 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>모델 준비 및 변환</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 시장 조사</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>아이디어 총괄 검토</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>라즈베리파이 모델 삽입 및 설정</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
@@ -167,6 +144,34 @@
     <t>조원진</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
+  <si>
+    <t>Execute tasks</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> UI디자인, Raspberry Pi 모듈 개발</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV 모델 개발, LLM 모델 개발, Raslberry Pi 모듈 개발</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV 모델 개발, LLM 모델 개발, UI검증</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>키오스크 GUI 개발, 프로젝트 기획및 문서 작성</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 개발 및 모듈 개발</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합과정 및 검토</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +184,7 @@
     <numFmt numFmtId="179" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="180" formatCode="d"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +404,12 @@
       <name val="휴먼모음T"/>
       <family val="1"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -753,7 +764,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1023,19 +1034,22 @@
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1047,17 +1061,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="179" fontId="31" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="31" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1603,8 +1620,8 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Z1"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A9" zoomScale="95" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
@@ -1623,69 +1640,69 @@
     <row r="1" spans="1:64" ht="90" customHeight="1">
       <c r="A1" s="8"/>
       <c r="B1" s="85" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
+      <c r="I1" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="104">
-        <f ca="1">TODAY()</f>
-        <v>45447</v>
-      </c>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
+      <c r="Q1" s="105">
+        <f ca="1">TODAY()-5</f>
+        <v>45462</v>
+      </c>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1">
       <c r="B2" s="84" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="105" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
+      <c r="I2" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="102">
+      <c r="Q2" s="103">
         <v>1</v>
       </c>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
     </row>
     <row r="3" spans="1:64" s="20" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="7"/>
@@ -1701,332 +1718,332 @@
         <v>6</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="I4" s="99">
+      <c r="I4" s="111">
         <f ca="1">I5</f>
-        <v>45446</v>
-      </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97">
+        <v>45460</v>
+      </c>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112">
         <f ca="1">P5</f>
-        <v>45453</v>
-      </c>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97">
+        <v>45467</v>
+      </c>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="112"/>
+      <c r="V4" s="112"/>
+      <c r="W4" s="108">
         <f ca="1">W5</f>
-        <v>45460</v>
-      </c>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97">
+        <v>45474</v>
+      </c>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="108">
         <f ca="1">AD5</f>
-        <v>45467</v>
-      </c>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="97"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="97">
+        <v>45481</v>
+      </c>
+      <c r="AE4" s="108"/>
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="108">
         <f ca="1">AK5</f>
-        <v>45474</v>
-      </c>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="97"/>
-      <c r="AN4" s="97"/>
-      <c r="AO4" s="97"/>
-      <c r="AP4" s="97"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="97">
+        <v>45488</v>
+      </c>
+      <c r="AL4" s="108"/>
+      <c r="AM4" s="108"/>
+      <c r="AN4" s="108"/>
+      <c r="AO4" s="108"/>
+      <c r="AP4" s="108"/>
+      <c r="AQ4" s="108"/>
+      <c r="AR4" s="108">
         <f ca="1">AR5</f>
-        <v>45481</v>
-      </c>
-      <c r="AS4" s="97"/>
-      <c r="AT4" s="97"/>
-      <c r="AU4" s="97"/>
-      <c r="AV4" s="97"/>
-      <c r="AW4" s="97"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="97">
+        <v>45495</v>
+      </c>
+      <c r="AS4" s="108"/>
+      <c r="AT4" s="108"/>
+      <c r="AU4" s="108"/>
+      <c r="AV4" s="108"/>
+      <c r="AW4" s="108"/>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="108">
         <f ca="1">AY5</f>
-        <v>45488</v>
-      </c>
-      <c r="AZ4" s="97"/>
-      <c r="BA4" s="97"/>
-      <c r="BB4" s="97"/>
-      <c r="BC4" s="97"/>
-      <c r="BD4" s="97"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="97">
+        <v>45502</v>
+      </c>
+      <c r="AZ4" s="108"/>
+      <c r="BA4" s="108"/>
+      <c r="BB4" s="108"/>
+      <c r="BC4" s="108"/>
+      <c r="BD4" s="108"/>
+      <c r="BE4" s="108"/>
+      <c r="BF4" s="108">
         <f ca="1">BF5</f>
-        <v>45495</v>
-      </c>
-      <c r="BG4" s="97"/>
-      <c r="BH4" s="97"/>
-      <c r="BI4" s="97"/>
-      <c r="BJ4" s="97"/>
-      <c r="BK4" s="97"/>
-      <c r="BL4" s="98"/>
+        <v>45509</v>
+      </c>
+      <c r="BG4" s="108"/>
+      <c r="BH4" s="108"/>
+      <c r="BI4" s="108"/>
+      <c r="BJ4" s="108"/>
+      <c r="BK4" s="108"/>
+      <c r="BL4" s="109"/>
     </row>
     <row r="5" spans="1:64" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108" t="s">
+      <c r="A5" s="97"/>
+      <c r="B5" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="100" t="s">
+      <c r="C5" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="F5" s="102" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="25">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45446</v>
+        <v>45460</v>
       </c>
       <c r="J5" s="25">
         <f ca="1">I5+1</f>
-        <v>45447</v>
+        <v>45461</v>
       </c>
       <c r="K5" s="25">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45448</v>
+        <v>45462</v>
       </c>
       <c r="L5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45449</v>
+        <v>45463</v>
       </c>
       <c r="M5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45450</v>
+        <v>45464</v>
       </c>
       <c r="N5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45451</v>
+        <v>45465</v>
       </c>
       <c r="O5" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45452</v>
+        <v>45466</v>
       </c>
       <c r="P5" s="27">
         <f ca="1">O5+1</f>
-        <v>45453</v>
+        <v>45467</v>
       </c>
       <c r="Q5" s="25">
         <f ca="1">P5+1</f>
-        <v>45454</v>
+        <v>45468</v>
       </c>
       <c r="R5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45455</v>
+        <v>45469</v>
       </c>
       <c r="S5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45456</v>
+        <v>45470</v>
       </c>
       <c r="T5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45457</v>
+        <v>45471</v>
       </c>
       <c r="U5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45458</v>
+        <v>45472</v>
       </c>
       <c r="V5" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45459</v>
+        <v>45473</v>
       </c>
       <c r="W5" s="27">
         <f ca="1">V5+1</f>
-        <v>45460</v>
+        <v>45474</v>
       </c>
       <c r="X5" s="25">
         <f ca="1">W5+1</f>
-        <v>45461</v>
+        <v>45475</v>
       </c>
       <c r="Y5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45462</v>
+        <v>45476</v>
       </c>
       <c r="Z5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45463</v>
+        <v>45477</v>
       </c>
       <c r="AA5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45464</v>
+        <v>45478</v>
       </c>
       <c r="AB5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45465</v>
+        <v>45479</v>
       </c>
       <c r="AC5" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45466</v>
+        <v>45480</v>
       </c>
       <c r="AD5" s="27">
         <f ca="1">AC5+1</f>
-        <v>45467</v>
+        <v>45481</v>
       </c>
       <c r="AE5" s="25">
         <f ca="1">AD5+1</f>
-        <v>45468</v>
+        <v>45482</v>
       </c>
       <c r="AF5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45469</v>
+        <v>45483</v>
       </c>
       <c r="AG5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45470</v>
+        <v>45484</v>
       </c>
       <c r="AH5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45471</v>
+        <v>45485</v>
       </c>
       <c r="AI5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45472</v>
+        <v>45486</v>
       </c>
       <c r="AJ5" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45473</v>
+        <v>45487</v>
       </c>
       <c r="AK5" s="27">
         <f ca="1">AJ5+1</f>
-        <v>45474</v>
+        <v>45488</v>
       </c>
       <c r="AL5" s="25">
         <f ca="1">AK5+1</f>
-        <v>45475</v>
+        <v>45489</v>
       </c>
       <c r="AM5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45476</v>
+        <v>45490</v>
       </c>
       <c r="AN5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45477</v>
+        <v>45491</v>
       </c>
       <c r="AO5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45478</v>
+        <v>45492</v>
       </c>
       <c r="AP5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45479</v>
+        <v>45493</v>
       </c>
       <c r="AQ5" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45480</v>
+        <v>45494</v>
       </c>
       <c r="AR5" s="27">
         <f ca="1">AQ5+1</f>
-        <v>45481</v>
+        <v>45495</v>
       </c>
       <c r="AS5" s="25">
         <f ca="1">AR5+1</f>
-        <v>45482</v>
+        <v>45496</v>
       </c>
       <c r="AT5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45483</v>
+        <v>45497</v>
       </c>
       <c r="AU5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45484</v>
+        <v>45498</v>
       </c>
       <c r="AV5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45485</v>
+        <v>45499</v>
       </c>
       <c r="AW5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45500</v>
       </c>
       <c r="AX5" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45487</v>
+        <v>45501</v>
       </c>
       <c r="AY5" s="27">
         <f ca="1">AX5+1</f>
-        <v>45488</v>
+        <v>45502</v>
       </c>
       <c r="AZ5" s="25">
         <f ca="1">AY5+1</f>
-        <v>45489</v>
+        <v>45503</v>
       </c>
       <c r="BA5" s="25">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45490</v>
+        <v>45504</v>
       </c>
       <c r="BB5" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>45491</v>
+        <v>45505</v>
       </c>
       <c r="BC5" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>45492</v>
+        <v>45506</v>
       </c>
       <c r="BD5" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>45493</v>
+        <v>45507</v>
       </c>
       <c r="BE5" s="26">
         <f t="shared" ca="1" si="1"/>
-        <v>45494</v>
+        <v>45508</v>
       </c>
       <c r="BF5" s="27">
         <f ca="1">BE5+1</f>
-        <v>45495</v>
+        <v>45509</v>
       </c>
       <c r="BG5" s="25">
         <f ca="1">BF5+1</f>
-        <v>45496</v>
+        <v>45510</v>
       </c>
       <c r="BH5" s="25">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45497</v>
+        <v>45511</v>
       </c>
       <c r="BI5" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>45498</v>
+        <v>45512</v>
       </c>
       <c r="BJ5" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>45499</v>
+        <v>45513</v>
       </c>
       <c r="BK5" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>45500</v>
+        <v>45514</v>
       </c>
       <c r="BL5" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>45501</v>
+        <v>45515</v>
       </c>
     </row>
     <row r="6" spans="1:64" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="107"/>
-      <c r="B6" s="109"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="101"/>
       <c r="D6" s="101"/>
       <c r="E6" s="101"/>
@@ -2084,7 +2101,7 @@
         <v>S</v>
       </c>
       <c r="V6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">LEFT(TEXT(V5,"ddd"),1)</f>
         <v>S</v>
       </c>
       <c r="W6" s="29" t="str">
@@ -2329,7 +2346,7 @@
     <row r="8" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="8"/>
       <c r="B8" s="89" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="35"/>
@@ -2400,26 +2417,26 @@
     <row r="9" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="8"/>
       <c r="B9" s="91" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C9" s="93" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D9" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="41">
         <f ca="1">Project_Start</f>
-        <v>45447</v>
+        <v>45462</v>
       </c>
       <c r="F9" s="41">
-        <f ca="1">E9+3</f>
-        <v>45450</v>
+        <f ca="1">E9+1</f>
+        <v>45463</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
@@ -2481,26 +2498,26 @@
     <row r="10" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="8"/>
       <c r="B10" s="92" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C10" s="94" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D10" s="45">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E10" s="46">
         <f ca="1">Project_Start</f>
-        <v>45447</v>
+        <v>45462</v>
       </c>
       <c r="F10" s="46">
-        <f ca="1">E10+2</f>
-        <v>45449</v>
+        <f ca="1">E10+1</f>
+        <v>45463</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
@@ -2562,26 +2579,26 @@
     <row r="11" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="7"/>
       <c r="B11" s="92" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C11" s="94" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D11" s="45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="46">
         <f ca="1">Project_Start</f>
-        <v>45447</v>
+        <v>45462</v>
       </c>
       <c r="F11" s="46">
-        <f ca="1">E11+4</f>
-        <v>45451</v>
+        <f ca="1">E11+1</f>
+        <v>45463</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
@@ -2643,26 +2660,26 @@
     <row r="12" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="92" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C12" s="94" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D12" s="45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="46">
         <f ca="1">Project_Start</f>
-        <v>45447</v>
+        <v>45462</v>
       </c>
       <c r="F12" s="46">
-        <f ca="1">E12+5</f>
-        <v>45452</v>
+        <f ca="1">E12+1</f>
+        <v>45463</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
@@ -2793,7 +2810,7 @@
     <row r="14" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="8"/>
       <c r="B14" s="90" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="49"/>
@@ -2807,28 +2824,28 @@
     </row>
     <row r="15" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="52" t="s">
-        <v>9</v>
+      <c r="B15" s="110" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="87" t="str">
         <f>C9</f>
         <v>정용재</v>
       </c>
       <c r="D15" s="54">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E15" s="55">
-        <f>E13+1</f>
-        <v>1</v>
+        <f ca="1">F9</f>
+        <v>45463</v>
       </c>
       <c r="F15" s="55">
-        <f>E15+4</f>
-        <v>5</v>
+        <f ca="1">E15+6</f>
+        <v>45469</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
@@ -2889,28 +2906,28 @@
     </row>
     <row r="16" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="52" t="s">
-        <v>10</v>
+      <c r="B16" s="110" t="s">
+        <v>30</v>
       </c>
       <c r="C16" s="88" t="str">
         <f>C10</f>
         <v>염재영</v>
       </c>
       <c r="D16" s="54">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E16" s="55">
-        <f>E15+2</f>
-        <v>3</v>
+        <f ca="1">F10</f>
+        <v>45463</v>
       </c>
       <c r="F16" s="55">
-        <f>E16+5</f>
-        <v>8</v>
+        <f ca="1">E16+6</f>
+        <v>45469</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="5">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
@@ -2971,28 +2988,28 @@
     </row>
     <row r="17" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="52" t="s">
-        <v>11</v>
+      <c r="B17" s="110" t="s">
+        <v>31</v>
       </c>
       <c r="C17" s="53" t="str">
         <f>C11</f>
         <v>김기범</v>
       </c>
       <c r="D17" s="54">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E17" s="55">
-        <f>F16</f>
-        <v>8</v>
+        <f ca="1">F11</f>
+        <v>45463</v>
       </c>
       <c r="F17" s="55">
-        <f>E17+3</f>
-        <v>11</v>
+        <f ca="1">E17+6</f>
+        <v>45469</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="5">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
@@ -3053,26 +3070,28 @@
     </row>
     <row r="18" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="52" t="s">
-        <v>12</v>
+      <c r="B18" s="110" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="53" t="str">
         <f>C12</f>
         <v>조원진</v>
       </c>
-      <c r="D18" s="54"/>
+      <c r="D18" s="54">
+        <v>0.7</v>
+      </c>
       <c r="E18" s="55">
-        <f>E17</f>
-        <v>8</v>
+        <f ca="1">F12</f>
+        <v>45463</v>
       </c>
       <c r="F18" s="55">
-        <f>E18+2</f>
-        <v>10</v>
+        <f ca="1">E18+6</f>
+        <v>45469</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="5">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
@@ -3203,7 +3222,7 @@
     <row r="20" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="7"/>
       <c r="B20" s="95" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="57"/>
@@ -3274,7 +3293,7 @@
     <row r="21" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="7"/>
       <c r="B21" s="61" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C21" s="62" t="str">
         <f>C9</f>
@@ -3285,11 +3304,11 @@
       </c>
       <c r="E21" s="64">
         <f ca="1">E9+15</f>
-        <v>45462</v>
+        <v>45477</v>
       </c>
       <c r="F21" s="64">
         <f ca="1">E21+5</f>
-        <v>45467</v>
+        <v>45482</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="5">
@@ -3356,7 +3375,7 @@
     <row r="22" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="7"/>
       <c r="B22" s="61" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C22" s="62" t="str">
         <f>C10</f>
@@ -3367,11 +3386,11 @@
       </c>
       <c r="E22" s="64">
         <f ca="1">F21+1</f>
-        <v>45468</v>
+        <v>45483</v>
       </c>
       <c r="F22" s="64">
         <f ca="1">E22+4</f>
-        <v>45472</v>
+        <v>45487</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="5">
@@ -3438,7 +3457,7 @@
     <row r="23" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="7"/>
       <c r="B23" s="61" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C23" s="62" t="str">
         <f>C11</f>
@@ -3449,11 +3468,11 @@
       </c>
       <c r="E23" s="64">
         <f ca="1">E22+5</f>
-        <v>45473</v>
+        <v>45488</v>
       </c>
       <c r="F23" s="64">
         <f ca="1">E23+5</f>
-        <v>45478</v>
+        <v>45493</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
@@ -3520,7 +3539,7 @@
     <row r="24" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="7"/>
       <c r="B24" s="61" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C24" s="62" t="str">
         <f>C12</f>
@@ -3531,11 +3550,11 @@
       </c>
       <c r="E24" s="64">
         <f ca="1">F23+1</f>
-        <v>45479</v>
+        <v>45494</v>
       </c>
       <c r="F24" s="64">
         <f ca="1">E24+4</f>
-        <v>45483</v>
+        <v>45498</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="5">
@@ -3671,7 +3690,7 @@
     <row r="26" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="7"/>
       <c r="B26" s="96" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C26" s="65"/>
       <c r="D26" s="66"/>
@@ -3742,7 +3761,7 @@
     <row r="27" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="7"/>
       <c r="B27" s="70" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C27" s="71" t="str">
         <f>C9</f>
@@ -3753,11 +3772,11 @@
       </c>
       <c r="E27" s="73">
         <f ca="1">E21+2</f>
-        <v>45464</v>
+        <v>45479</v>
       </c>
       <c r="F27" s="73">
         <f ca="1">E27+3</f>
-        <v>45467</v>
+        <v>45482</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="5">
@@ -3824,7 +3843,7 @@
     <row r="28" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="7"/>
       <c r="B28" s="70" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C28" s="71" t="str">
         <f>C10</f>
@@ -3835,11 +3854,11 @@
       </c>
       <c r="E28" s="73">
         <f ca="1">F27</f>
-        <v>45467</v>
+        <v>45482</v>
       </c>
       <c r="F28" s="73">
         <f ca="1">E28+4</f>
-        <v>45471</v>
+        <v>45486</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="5">
@@ -3906,7 +3925,7 @@
     <row r="29" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="7"/>
       <c r="B29" s="70" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C29" s="71" t="str">
         <f>C11</f>
@@ -3917,11 +3936,11 @@
       </c>
       <c r="E29" s="73">
         <f ca="1">F28+1</f>
-        <v>45472</v>
+        <v>45487</v>
       </c>
       <c r="F29" s="73">
         <f ca="1">E29+3</f>
-        <v>45475</v>
+        <v>45490</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="5">
@@ -3988,7 +4007,7 @@
     <row r="30" spans="1:64" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A30" s="7"/>
       <c r="B30" s="70" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C30" s="71" t="str">
         <f>C12</f>
@@ -3999,11 +4018,11 @@
       </c>
       <c r="E30" s="73">
         <f ca="1">E27+5</f>
-        <v>45469</v>
+        <v>45484</v>
       </c>
       <c r="F30" s="73">
         <f ca="1">E30+3</f>
-        <v>45472</v>
+        <v>45487</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="5">
@@ -4288,16 +4307,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4306,6 +4315,16 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="D7:D33">
@@ -4387,7 +4406,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F18 F22:F23 E23 F28" formula="1"/>
+    <ignoredError sqref="F22:F23 E23 F28" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4414,26 +4433,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4745,6 +4744,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4755,25 +4774,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4794,6 +4794,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
